--- a/data/output/FV2504_FV2410/UTILMD/55008.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55008.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="214">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="214">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -785,6 +785,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U89" totalsRowShown="0">
+  <autoFilter ref="A1:U89"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1074,7 +1104,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5116,5 +5149,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55008.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55008.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="301">
   <si>
     <t>#</t>
   </si>
@@ -4791,44 +4791,42 @@
       <c r="V68" s="5"/>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K69" s="5"/>
-      <c r="L69" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M69" s="5" t="s">
+      <c r="K69" s="2"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N69" s="5" t="s">
+      <c r="N69" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5" t="s">
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="V69" s="5"/>
+      <c r="V69" s="2"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -4966,9 +4964,7 @@
         <v>184</v>
       </c>
       <c r="K72" s="5"/>
-      <c r="L72" s="7" t="s">
-        <v>202</v>
-      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="5" t="s">
         <v>35</v>
       </c>

--- a/data/output/FV2504_FV2410/UTILMD/55008.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55008.xlsx
@@ -1030,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1053,6 +1053,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1061,6 +1064,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1503,7 +1509,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1867,7 +1873,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2013,7 +2019,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2215,7 +2221,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2523,7 +2529,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2723,7 +2729,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3097,7 +3103,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3405,7 +3411,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3581,52 +3587,52 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K43" s="5"/>
+      <c r="K43" s="2"/>
       <c r="L43" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="V43" s="5"/>
+      <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="5" t="s">
@@ -3811,26 +3817,26 @@
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="L47" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M47" s="5"/>
@@ -3848,33 +3854,33 @@
       <c r="A48" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M48" s="5"/>
@@ -3892,31 +3898,31 @@
       <c r="A49" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M49" s="5"/>
@@ -3934,33 +3940,33 @@
       <c r="A50" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9" t="s">
+      <c r="J50" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M50" s="5"/>
@@ -3981,26 +3987,26 @@
       <c r="B51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M51" s="5"/>
@@ -4018,33 +4024,33 @@
       <c r="A52" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M52" s="5"/>
@@ -4062,33 +4068,33 @@
       <c r="A53" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9" t="s">
+      <c r="J53" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M53" s="5"/>
@@ -4106,31 +4112,31 @@
       <c r="A54" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8" t="s">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8" t="s">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="9" t="s">
+      <c r="J54" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M54" s="5"/>
@@ -4148,31 +4154,31 @@
       <c r="A55" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8" t="s">
+      <c r="F55" s="9"/>
+      <c r="G55" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8" t="s">
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="9" t="s">
+      <c r="J55" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M55" s="5"/>
@@ -4200,29 +4206,29 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11" t="s">
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11" t="s">
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="V56" s="11"/>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4238,35 +4244,35 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="R57" s="11" t="s">
+      <c r="R57" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11" t="s">
+      <c r="S57" s="13"/>
+      <c r="T57" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U57" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="V57" s="11"/>
+      <c r="U57" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="V57" s="13"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -4282,35 +4288,35 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q58" s="11" t="s">
+      <c r="Q58" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="R58" s="11" t="s">
+      <c r="R58" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11" t="s">
+      <c r="S58" s="13"/>
+      <c r="T58" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="U58" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="V58" s="11"/>
+      <c r="U58" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
@@ -4326,33 +4332,33 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="P59" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11" t="s">
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11" t="s">
+      <c r="S59" s="13"/>
+      <c r="T59" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="U59" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="V59" s="11"/>
+      <c r="U59" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="V59" s="13"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -4368,55 +4374,55 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11" t="s">
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11" t="s">
+      <c r="S60" s="13"/>
+      <c r="T60" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="U60" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="V60" s="11"/>
+      <c r="U60" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="2"/>
       <c r="F61" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5" t="s">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
         <v>192</v>
       </c>
       <c r="K61" s="6" t="s">
@@ -4425,23 +4431,23 @@
       <c r="L61" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M61" s="5" t="s">
+      <c r="M61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N61" s="5" t="s">
+      <c r="N61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O61" s="5" t="s">
+      <c r="O61" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P61" s="5"/>
+      <c r="P61" s="2"/>
       <c r="Q61" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5" t="s">
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2" t="s">
         <v>192</v>
       </c>
       <c r="V61" s="6" t="s">
@@ -4635,22 +4641,22 @@
       <c r="B65" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8" t="s">
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K65" s="8" t="s">
+      <c r="K65" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="L65" s="9" t="s">
+      <c r="L65" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M65" s="5"/>
@@ -4668,27 +4674,27 @@
       <c r="A66" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
+      <c r="E66" s="9"/>
+      <c r="F66" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8" t="s">
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="9" t="s">
+      <c r="K66" s="9"/>
+      <c r="L66" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M66" s="5"/>
@@ -4706,33 +4712,33 @@
       <c r="A67" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8" t="s">
+      <c r="H67" s="9"/>
+      <c r="I67" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J67" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="9" t="s">
+      <c r="J67" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K67" s="9"/>
+      <c r="L67" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M67" s="5"/>
@@ -4750,33 +4756,33 @@
       <c r="A68" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8" t="s">
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J68" s="8" t="s">
+      <c r="J68" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="K68" s="8" t="s">
+      <c r="K68" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="L68" s="9" t="s">
+      <c r="L68" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M68" s="5"/>
@@ -4811,7 +4817,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -4991,41 +4997,41 @@
       <c r="V72" s="5"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5" t="s">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
         <v>183</v>
       </c>
       <c r="K73" s="6"/>
       <c r="L73" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M73" s="5" t="s">
+      <c r="M73" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N73" s="5" t="s">
+      <c r="N73" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5" t="s">
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2" t="s">
         <v>183</v>
       </c>
       <c r="V73" s="6" t="s">
@@ -5203,22 +5209,22 @@
       <c r="B77" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8" t="s">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K77" s="8" t="s">
+      <c r="K77" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="L77" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M77" s="5"/>
@@ -5236,27 +5242,27 @@
       <c r="A78" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8" t="s">
+      <c r="E78" s="9"/>
+      <c r="F78" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8" t="s">
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K78" s="8"/>
-      <c r="L78" s="9" t="s">
+      <c r="K78" s="9"/>
+      <c r="L78" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M78" s="5"/>
@@ -5274,33 +5280,33 @@
       <c r="A79" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8" t="s">
+      <c r="H79" s="9"/>
+      <c r="I79" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J79" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="9" t="s">
+      <c r="J79" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K79" s="9"/>
+      <c r="L79" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M79" s="5"/>
@@ -5321,24 +5327,24 @@
       <c r="B80" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8" t="s">
+      <c r="E80" s="9"/>
+      <c r="F80" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8" t="s">
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="9" t="s">
+      <c r="K80" s="9"/>
+      <c r="L80" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M80" s="5"/>
@@ -5356,33 +5362,33 @@
       <c r="A81" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8" t="s">
+      <c r="H81" s="9"/>
+      <c r="I81" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J81" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="9" t="s">
+      <c r="J81" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K81" s="9"/>
+      <c r="L81" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M81" s="5"/>
@@ -5400,33 +5406,33 @@
       <c r="A82" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8" t="s">
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="K82" s="8" t="s">
+      <c r="K82" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="L82" s="9" t="s">
+      <c r="L82" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M82" s="5"/>
@@ -5447,20 +5453,20 @@
       <c r="B83" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8" t="s">
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="9" t="s">
+      <c r="K83" s="9"/>
+      <c r="L83" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M83" s="5"/>
@@ -5478,27 +5484,27 @@
       <c r="A84" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8" t="s">
+      <c r="E84" s="9"/>
+      <c r="F84" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8" t="s">
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="9" t="s">
+      <c r="K84" s="9"/>
+      <c r="L84" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M84" s="5"/>
@@ -5516,33 +5522,33 @@
       <c r="A85" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8" t="s">
+      <c r="H85" s="9"/>
+      <c r="I85" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J85" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="9" t="s">
+      <c r="J85" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K85" s="9"/>
+      <c r="L85" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M85" s="5"/>
@@ -5560,33 +5566,33 @@
       <c r="A86" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8" t="s">
+      <c r="H86" s="9"/>
+      <c r="I86" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="J86" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="9" t="s">
+      <c r="J86" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K86" s="9"/>
+      <c r="L86" s="10" t="s">
         <v>203</v>
       </c>
       <c r="M86" s="5"/>
@@ -5601,48 +5607,48 @@
       <c r="V86" s="5"/>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5" t="s">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E87" s="5"/>
+      <c r="E87" s="2"/>
       <c r="F87" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5" t="s">
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K87" s="5"/>
+      <c r="K87" s="2"/>
       <c r="L87" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M87" s="5" t="s">
+      <c r="M87" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5" t="s">
+      <c r="N87" s="2"/>
+      <c r="O87" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P87" s="5"/>
+      <c r="P87" s="2"/>
       <c r="Q87" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5" t="s">
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="V87" s="5"/>
+      <c r="V87" s="2"/>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="5" t="s">
